--- a/Places in Sri Lanka.xlsx
+++ b/Places in Sri Lanka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nuwan.senaratna/Dropbox/_CODING/py/lk_names/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AC983C-7C9C-D04D-8B1D-E676BC13C59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3073124-7678-1749-A825-8D1FC61B7F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-980" yWindow="1600" windowWidth="28100" windowHeight="17440" activeTab="2" xr2:uid="{E380AA61-6B1A-6145-ADCD-732697081899}"/>
+    <workbookView xWindow="8560" yWindow="960" windowWidth="28100" windowHeight="17440" xr2:uid="{E380AA61-6B1A-6145-ADCD-732697081899}"/>
   </bookViews>
   <sheets>
     <sheet name="raw-lists" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="shortest" sheetId="4" r:id="rId3"/>
     <sheet name="most-number" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="109">
   <si>
     <t>A</t>
   </si>
@@ -303,6 +303,69 @@
   </si>
   <si>
     <t>Yainna</t>
+  </si>
+  <si>
+    <t>Alagalla</t>
+  </si>
+  <si>
+    <t>Pahalagama</t>
+  </si>
+  <si>
+    <t>Bobebila</t>
+  </si>
+  <si>
+    <t>Civic</t>
+  </si>
+  <si>
+    <t>Centre</t>
+  </si>
+  <si>
+    <t>Ellewela</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>Gangodagama</t>
+  </si>
+  <si>
+    <t>Hanthihawa</t>
+  </si>
+  <si>
+    <t>Laggala</t>
+  </si>
+  <si>
+    <t>Pallegama</t>
+  </si>
+  <si>
+    <t>Mummana</t>
+  </si>
+  <si>
+    <t>Nelunkanniya</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>Periyapalli</t>
+  </si>
+  <si>
+    <t>Kudiyiruppuwa</t>
+  </si>
+  <si>
+    <t>Sisilasagama</t>
+  </si>
+  <si>
+    <t>Unuwathura</t>
+  </si>
+  <si>
+    <t>Bubula</t>
+  </si>
+  <si>
+    <t>Wewala</t>
+  </si>
+  <si>
+    <t>Wewa</t>
   </si>
 </sst>
 </file>
@@ -779,15 +842,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0290C56-7D41-BA42-9DB0-CE278A111901}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="11" max="11" width="21.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -806,8 +872,21 @@
       <c r="F1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" t="str">
+        <f>I1&amp;" " &amp;J1</f>
+        <v>Alagalla Pahalagama</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -826,8 +905,18 @@
       <c r="F2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K26" si="0">I2&amp;" " &amp;J2</f>
+        <v xml:space="preserve">Bobebila </v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -846,8 +935,21 @@
       <c r="F3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="0"/>
+        <v>Civic Centre</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -866,8 +968,18 @@
       <c r="F4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Dodandugoda </v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -886,8 +998,21 @@
       <c r="F5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>Ellewela East</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -906,8 +1031,18 @@
       <c r="F6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Frotoft </v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -926,8 +1061,18 @@
       <c r="F7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Gangodagama </v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -946,8 +1091,18 @@
       <c r="F8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Hanthihawa </v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -959,6 +1114,238 @@
       </c>
       <c r="D9" t="s">
         <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>Inginimitiya East</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Jayarajapura </v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Kurukkalputhukkulam </v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>Laggala Pallegama</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Mummana </v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Nelunkanniya </v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>Ogodapola North</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>Periyapalli Kudiyiruppuwa</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11">
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Queensberry </v>
+      </c>
+    </row>
+    <row r="18" spans="8:11">
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Ranasiripura </v>
+      </c>
+    </row>
+    <row r="19" spans="8:11">
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Sisilasagama </v>
+      </c>
+    </row>
+    <row r="20" spans="8:11">
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Thittapattara </v>
+      </c>
+    </row>
+    <row r="21" spans="8:11">
+      <c r="H21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>Unuwathura Bubula</v>
+      </c>
+    </row>
+    <row r="22" spans="8:11">
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Vavunativu </v>
+      </c>
+    </row>
+    <row r="23" spans="8:11">
+      <c r="H23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v>Wewala Wewa</v>
+      </c>
+    </row>
+    <row r="24" spans="8:11">
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">- </v>
+      </c>
+    </row>
+    <row r="25" spans="8:11">
+      <c r="H25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Yatiyana </v>
+      </c>
+    </row>
+    <row r="26" spans="8:11">
+      <c r="H26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">- </v>
       </c>
     </row>
   </sheetData>
@@ -972,7 +1359,7 @@
   <dimension ref="D2:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:I13"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1190,7 +1577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C452703-96DC-D543-999A-CED70FA94B86}">
   <dimension ref="B3:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
